--- a/DDAf_2025_Tableau_annexe_Tab10.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab10.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF9C4AD-9A5C-41A1-93ED-C826205C2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A18211-C9AE-4777-A667-AD34B5FAC52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{38570E9E-09FC-473D-A2C0-8F796F308830}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{5E6F1BE2-DA70-4F08-A05F-F48902EA0839}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab10'!$A$2:$L$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab10'!$A$1:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab10'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab10'!$A$1:$I$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,51 +37,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="175">
-  <si>
-    <t>Table 10: Investment returns and debt risk</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Direct investment liabilities, stock as a % of GDP, 2023</t>
-  </si>
-  <si>
-    <t>Direct investment debit/expenditure as a % of GDP, 2023</t>
-  </si>
-  <si>
-    <t>Direct investment assets, stock as a % of GDP, 2023</t>
-  </si>
-  <si>
-    <t>Direct investment credit/revenu as a % of GDP, 2023</t>
-  </si>
-  <si>
-    <t>Direct investment liabilities, stock (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Direct investment debit/expenditure (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Direct investment assets, stock (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Direct investment credit/revenu (millions of USD), 2023</t>
-  </si>
-  <si>
-    <t>Return on inward direct investment (debits over two-year average liabilities X 100), 2023</t>
-  </si>
-  <si>
-    <t>Return on outward direct investment (credits over two-year average assets X 100), 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="177">
+  <si>
+    <t>Tableau 10 : Rendement des investissements et risque d'endettement</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Passifs d'investissement direct (stock) en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Débit d'investissement direct (débit/dépense) en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Actifs d'investissement direct (stock) en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Crédit d'investissement direct (crédit/revenu) en % du PIB, 2023</t>
+  </si>
+  <si>
+    <t>Passifs d'investissement direct (stock), millions de dollars US, 2023</t>
+  </si>
+  <si>
+    <t>Débit d'investissement direct (débit/dépense), millions de dollars US, 2023</t>
+  </si>
+  <si>
+    <t>Actifs d'investissement direct (stock), millions de dollars US, 2023</t>
+  </si>
+  <si>
+    <t>Crédit d'investissement direct (crédit/revenu), millions de dollars US, 2023</t>
+  </si>
+  <si>
+    <t>Rendement des investissements directs entrants (débits divisés par le passif moyen sur deux ans X 100), 2023</t>
+  </si>
+  <si>
+    <t>Rendement des investissements directs sortants (crédits divisés par la moyenne des actifs sur deux ans X 100), 2023</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -120,19 +120,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -141,7 +141,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -153,58 +156,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -216,13 +219,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -240,7 +243,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -258,79 +261,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -342,7 +345,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -354,7 +357,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -366,13 +369,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -402,7 +405,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -417,22 +420,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -441,19 +444,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -471,97 +474,101 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>The returns on inward direct investments are calculated by taking the direct investment debits in year N and dividing it by the average of the direct investment liabilities over year N and year N-1 and then multiplying by 100. For 2020, this means taking 2020 debits and dividing by the liabilities averaged over 2019 and 2020.</t>
-  </si>
-  <si>
-    <t>The returns on outward direct investments are calculated by taking the direct investment credits in year N and dividing it by the average of the direct investment assets over year N and year N-1 and then multiplying by 100. For 2020, this means taking 2020 credits and dividing by assets averaged over 2019 and 2020.</t>
-  </si>
-  <si>
-    <t>Source: IMF Balance of Payments (BOP) Dataset (accessed on 27/10/2025), IMF International Investment Position (IIP) Dataset (accessed on 28/10/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Les rendements des investissements directs entrants sont calculés en prenant les débits d'investissements directs de l'année N et en les divisant par la moyenne des passifs d'investissements directs sur l'année N et l'année N-1 puis en multipliant par 100. Pour 2020, cela revient à prendre les débits de 2020 et en divisant par les passifs moyennés sur 2019 et 2020.</t>
+  </si>
+  <si>
+    <t>Les rendements des investissements directs sortants sont calculés en prenant les crédits d'investissements directs de l'année N et en les divisant par la moyenne des actifs d'investissements directs sur l'année N et l'année N-1 puis en multipliant par 100. Pour 2020, cela revient à prendre les crédits 2020 et en divisant par les actifs en moyenne sur 2019 et 2020.</t>
+  </si>
+  <si>
+    <t>Source : Base de données du FMI sur la balance des paiements (BOP) (consultée le 27/10/2025), Base de données du FMI sur la position extérieure (IIP) (consultée le 28/10/2025).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -574,7 +581,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,16 +713,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -942,7 +939,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1312,9 +1309,7 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1597,25 +1592,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CA6094-4135-43BA-A636-0ACC04DB808C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFE795B-51B4-4662-8523-6E7015B866E1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" style="128" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="129" customWidth="1"/>
-    <col min="7" max="8" width="14.1796875" style="128" customWidth="1"/>
-    <col min="9" max="10" width="14.1796875" style="129" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" style="128" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="129" customWidth="1"/>
-    <col min="13" max="15" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="127" customWidth="1"/>
+    <col min="4" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1633,7 +1623,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2052,9 +2042,11 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40"/>
+      <c r="A13" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="42">
         <v>35.703944</v>
@@ -2089,10 +2081,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>21</v>
@@ -2127,10 +2119,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="31">
         <v>25.015124</v>
@@ -2165,10 +2157,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>21</v>
@@ -2203,10 +2195,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>21</v>
@@ -2241,10 +2233,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>21</v>
@@ -2279,10 +2271,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>21</v>
@@ -2317,10 +2309,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>21</v>
@@ -2355,10 +2347,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>21</v>
@@ -2393,10 +2385,10 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="56">
         <v>51.285761000000001</v>
@@ -2430,9 +2422,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40"/>
+      <c r="A23" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="B23" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="42">
         <v>25.256098000000001</v>
@@ -2467,10 +2461,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="63" t="s">
         <v>21</v>
@@ -2505,10 +2499,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="31">
         <v>61.203879000000001</v>
@@ -2543,10 +2537,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>21</v>
@@ -2581,10 +2575,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>21</v>
@@ -2619,10 +2613,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="31">
         <v>8.6736079999999998</v>
@@ -2657,10 +2651,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>21</v>
@@ -2695,10 +2689,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="31">
         <v>2590.3346190000002</v>
@@ -2733,10 +2727,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="31">
         <v>25.790821999999999</v>
@@ -2771,10 +2765,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="31">
         <v>205.288591</v>
@@ -2809,10 +2803,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>21</v>
@@ -2847,10 +2841,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="49" t="s">
         <v>21</v>
@@ -2885,10 +2879,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>21</v>
@@ -2923,10 +2917,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="31">
         <v>24.422746</v>
@@ -2961,10 +2955,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="34">
         <v>37.737958999999996</v>
@@ -2998,9 +2992,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="B38" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="42">
         <v>131.33863299999999</v>
@@ -3035,10 +3031,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="70">
         <v>8.6438410000000001</v>
@@ -3073,10 +3069,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="31">
         <v>40.294030999999997</v>
@@ -3111,10 +3107,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>21</v>
@@ -3149,10 +3145,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="49" t="s">
         <v>21</v>
@@ -3187,10 +3183,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="31">
         <v>40.765562000000003</v>
@@ -3225,10 +3221,10 @@
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="56">
         <v>87.635244</v>
@@ -3262,9 +3258,11 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="B45" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="42">
         <v>35.554873000000001</v>
@@ -3299,10 +3297,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="63">
         <v>22.356974999999998</v>
@@ -3337,10 +3335,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="31">
         <v>20.592085999999998</v>
@@ -3375,10 +3373,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="49">
         <v>103.24968200000001</v>
@@ -3413,10 +3411,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="31">
         <v>20.725048000000001</v>
@@ -3451,10 +3449,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>21</v>
@@ -3489,10 +3487,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="20">
         <v>17.339537</v>
@@ -3527,10 +3525,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="31">
         <v>21.356092</v>
@@ -3565,10 +3563,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="31">
         <v>19.025127999999999</v>
@@ -3603,10 +3601,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" s="31" t="s">
         <v>21</v>
@@ -3641,10 +3639,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="31">
         <v>29.775310000000001</v>
@@ -3679,10 +3677,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="31">
         <v>57.08023</v>
@@ -3717,10 +3715,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="31">
         <v>15.429981</v>
@@ -3755,10 +3753,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>21</v>
@@ -3793,10 +3791,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="31">
         <v>37.455413</v>
@@ -3831,10 +3829,10 @@
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>21</v>
@@ -3870,7 +3868,7 @@
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="40"/>
       <c r="B61" s="41" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C61" s="42">
         <v>17.880763000000002</v>
@@ -3906,7 +3904,7 @@
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="77"/>
       <c r="B62" s="78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="79">
         <v>39.039149000000002</v>
@@ -3942,7 +3940,7 @@
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="77"/>
       <c r="B63" s="78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="79">
         <v>49.907623000000001</v>
@@ -3978,7 +3976,7 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="85"/>
       <c r="B64" s="86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="87">
         <v>51.673433000000003</v>
@@ -4014,7 +4012,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="85"/>
       <c r="B65" s="93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="94">
         <v>20.602474999999998</v>
@@ -4050,7 +4048,7 @@
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="85"/>
       <c r="B66" s="100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="101">
         <v>49.361491999999998</v>
@@ -4086,7 +4084,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="85"/>
       <c r="B67" s="93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="94">
         <v>69.843065999999993</v>
@@ -4122,7 +4120,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="85"/>
       <c r="B68" s="93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="94">
         <v>30.304352000000002</v>
@@ -4158,7 +4156,7 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="85"/>
       <c r="B69" s="93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C69" s="94">
         <v>20.272772</v>
@@ -4194,7 +4192,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="85"/>
       <c r="B70" s="93" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="94">
         <v>16.055309000000001</v>
@@ -4230,7 +4228,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="85"/>
       <c r="B71" s="93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C71" s="94">
         <v>17.880763000000002</v>
@@ -4266,7 +4264,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="85"/>
       <c r="B72" s="93" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C72" s="94">
         <v>18.418610000000001</v>
@@ -4302,7 +4300,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="85"/>
       <c r="B73" s="93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C73" s="94">
         <v>83.718942999999996</v>
@@ -4338,7 +4336,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="85"/>
       <c r="B74" s="93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C74" s="94">
         <v>27.966070999999999</v>
@@ -4374,7 +4372,7 @@
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="85"/>
       <c r="B75" s="93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C75" s="107">
         <v>46.945946999999997</v>
@@ -4410,7 +4408,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="85"/>
       <c r="B76" s="113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C76" s="114">
         <v>78.653136000000003</v>
@@ -4446,7 +4444,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="85"/>
       <c r="B77" s="93" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C77" s="94">
         <v>53.824657999999999</v>
@@ -4482,7 +4480,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="85"/>
       <c r="B78" s="93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C78" s="94">
         <v>111.94569199999999</v>
@@ -4518,7 +4516,7 @@
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="85"/>
       <c r="B79" s="100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C79" s="101">
         <v>69.143690000000007</v>
@@ -4554,7 +4552,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="85"/>
       <c r="B80" s="113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C80" s="114">
         <v>9.7637260000000001</v>
@@ -4590,7 +4588,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="85"/>
       <c r="B81" s="93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C81" s="94">
         <v>22.910730000000001</v>
@@ -4626,7 +4624,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="85"/>
       <c r="B82" s="93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C82" s="94">
         <v>43.362589999999997</v>
@@ -4662,7 +4660,7 @@
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="85"/>
       <c r="B83" s="100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C83" s="101">
         <v>51.814771999999998</v>
@@ -4698,7 +4696,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="85"/>
       <c r="B84" s="113" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C84" s="114">
         <v>58.993935</v>
@@ -4734,7 +4732,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="85"/>
       <c r="B85" s="120" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85" s="94" t="s">
         <v>21</v>
@@ -4770,7 +4768,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="85"/>
       <c r="B86" s="93" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" s="94">
         <v>28.164961999999999</v>
@@ -4806,7 +4804,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="85"/>
       <c r="B87" s="93" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C87" s="94">
         <v>15.634933</v>
@@ -4842,7 +4840,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="85"/>
       <c r="B88" s="93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C88" s="94">
         <v>71.827951999999996</v>
@@ -4878,7 +4876,7 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="85"/>
       <c r="B89" s="93" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C89" s="94">
         <v>29.012483</v>
@@ -4914,7 +4912,7 @@
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="85"/>
       <c r="B90" s="100" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C90" s="101">
         <v>72.652597999999998</v>
@@ -4950,7 +4948,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="85"/>
       <c r="B91" s="113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C91" s="114">
         <v>36.111020000000003</v>
@@ -4986,7 +4984,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="85"/>
       <c r="B92" s="93" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C92" s="94">
         <v>11.91544</v>
@@ -5022,7 +5020,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="85"/>
       <c r="B93" s="93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C93" s="94">
         <v>1819.03595</v>
@@ -5058,7 +5056,7 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="85"/>
       <c r="B94" s="93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C94" s="94">
         <v>347.16062899999997</v>
@@ -5094,7 +5092,7 @@
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="85"/>
       <c r="B95" s="93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C95" s="94">
         <v>35.737690000000001</v>
@@ -5130,7 +5128,7 @@
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="85"/>
       <c r="B96" s="100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C96" s="101">
         <v>43.489592000000002</v>
@@ -5166,7 +5164,7 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="85"/>
       <c r="B97" s="113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" s="114">
         <v>22.305539</v>
@@ -5202,7 +5200,7 @@
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="85"/>
       <c r="B98" s="100" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C98" s="101">
         <v>12.665156</v>
@@ -5251,7 +5249,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100" s="123"/>
       <c r="D100" s="123"/>
@@ -5266,7 +5264,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C101" s="123"/>
       <c r="D101" s="123"/>
@@ -5281,7 +5279,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C102" s="123"/>
       <c r="D102" s="123"/>
@@ -5296,7 +5294,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C103" s="123"/>
       <c r="D103" s="123"/>
@@ -5311,7 +5309,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C104" s="123"/>
       <c r="D104" s="123"/>
@@ -5326,7 +5324,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C105" s="123"/>
       <c r="D105" s="123"/>
@@ -5341,7 +5339,7 @@
     </row>
     <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B106" s="125"/>
       <c r="C106" s="123"/>
@@ -5355,8 +5353,8 @@
       <c r="K106" s="123"/>
       <c r="L106" s="124"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B107" s="126"/>
+    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="125"/>
       <c r="C107" s="123"/>
       <c r="D107" s="123"/>
       <c r="E107" s="124"/>
@@ -5369,7 +5367,9 @@
       <c r="L107" s="124"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="128" t="s">
+        <v>175</v>
+      </c>
       <c r="C108" s="123"/>
       <c r="D108" s="123"/>
       <c r="E108" s="124"/>
@@ -5382,9 +5382,7 @@
       <c r="L108" s="124"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="130" t="s">
-        <v>172</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="123"/>
       <c r="D109" s="123"/>
       <c r="E109" s="124"/>
@@ -5397,8 +5395,8 @@
       <c r="L109" s="124"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B110" s="130" t="s">
-        <v>173</v>
+      <c r="B110" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C110" s="123"/>
       <c r="D110" s="123"/>
@@ -5412,8 +5410,8 @@
       <c r="L110" s="124"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="130" t="s">
-        <v>174</v>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C111" s="123"/>
       <c r="D111" s="123"/>
@@ -5427,8 +5425,8 @@
       <c r="L111" s="124"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>171</v>
+      <c r="B112" s="128" t="s">
+        <v>176</v>
       </c>
       <c r="C112" s="123"/>
       <c r="D112" s="123"/>
@@ -5442,7 +5440,9 @@
       <c r="L112" s="124"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B113" s="127"/>
+      <c r="B113" s="128" t="s">
+        <v>174</v>
+      </c>
       <c r="C113" s="123"/>
       <c r="D113" s="123"/>
       <c r="E113" s="124"/>
@@ -5454,16 +5454,40 @@
       <c r="K113" s="123"/>
       <c r="L113" s="124"/>
     </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B114" s="126"/>
+      <c r="C114" s="123"/>
+      <c r="D114" s="123"/>
+      <c r="E114" s="124"/>
+      <c r="F114" s="124"/>
+      <c r="G114" s="123"/>
+      <c r="H114" s="123"/>
+      <c r="I114" s="124"/>
+      <c r="J114" s="124"/>
+      <c r="K114" s="123"/>
+      <c r="L114" s="124"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B115" s="126"/>
+      <c r="C115" s="123"/>
+      <c r="D115" s="123"/>
+      <c r="E115" s="123"/>
+      <c r="F115" s="123"/>
+      <c r="G115" s="123"/>
+      <c r="H115" s="123"/>
+      <c r="I115" s="123"/>
+      <c r="J115" s="123"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{7EE82E8B-9684-47E6-BF72-4D828CBB27DB}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{0ADA13A1-6A7B-41F7-92C1-5859D826D0CE}"/>
-    <hyperlink ref="B107" r:id="rId3" display="CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators." xr:uid="{C08CD593-7F3C-4FD3-ADEB-B2C35C2B5F6C}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{19C47BCC-2061-4C67-A65F-2B98A505D99E}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{63639351-59B1-4F35-8791-3BC9D1F12F0F}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A6E41B17-F924-448A-86F4-FA57D171CED6}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5D29B5DC-C323-4C4C-BDD8-2E5EEDA7C226}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{79D740F3-9E92-4873-A3A9-0633EA66135D}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{82F3C647-C1B7-45EB-B4EF-536FA8F7948B}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{2F4F19F6-9890-4332-9BF1-B96214D32C9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
